--- a/Reportes/Reporte_Data_40_Salidas_composición_zonas_heterogéneas.xlsx_local_beam_search.xlsx
+++ b/Reportes/Reporte_Data_40_Salidas_composición_zonas_heterogéneas.xlsx_local_beam_search.xlsx
@@ -162,124 +162,124 @@
     <t>Pedido_40</t>
   </si>
   <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S039</t>
+  </si>
+  <si>
+    <t>S030</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S027</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S031</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S028</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>S032</t>
+  </si>
+  <si>
+    <t>S040</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S034</t>
+  </si>
+  <si>
+    <t>S037</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>S033</t>
+  </si>
+  <si>
+    <t>S038</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>S035</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>S026</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>S036</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>S029</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
     <t>S018</t>
   </si>
   <si>
-    <t>S025</t>
-  </si>
-  <si>
-    <t>S005</t>
-  </si>
-  <si>
-    <t>S029</t>
+    <t>S022</t>
   </si>
   <si>
     <t>S019</t>
   </si>
   <si>
-    <t>S031</t>
-  </si>
-  <si>
-    <t>S028</t>
-  </si>
-  <si>
-    <t>S006</t>
-  </si>
-  <si>
-    <t>S027</t>
-  </si>
-  <si>
-    <t>S003</t>
-  </si>
-  <si>
-    <t>S026</t>
-  </si>
-  <si>
-    <t>S007</t>
-  </si>
-  <si>
-    <t>S011</t>
-  </si>
-  <si>
-    <t>S004</t>
-  </si>
-  <si>
-    <t>S032</t>
-  </si>
-  <si>
-    <t>S039</t>
-  </si>
-  <si>
-    <t>S010</t>
-  </si>
-  <si>
-    <t>S009</t>
-  </si>
-  <si>
-    <t>S037</t>
-  </si>
-  <si>
-    <t>S013</t>
-  </si>
-  <si>
-    <t>S001</t>
-  </si>
-  <si>
-    <t>S033</t>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S020</t>
   </si>
   <si>
     <t>S024</t>
-  </si>
-  <si>
-    <t>S014</t>
-  </si>
-  <si>
-    <t>S035</t>
-  </si>
-  <si>
-    <t>S030</t>
-  </si>
-  <si>
-    <t>S015</t>
-  </si>
-  <si>
-    <t>S034</t>
-  </si>
-  <si>
-    <t>S012</t>
-  </si>
-  <si>
-    <t>S016</t>
-  </si>
-  <si>
-    <t>S036</t>
-  </si>
-  <si>
-    <t>S023</t>
-  </si>
-  <si>
-    <t>S040</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>S038</t>
-  </si>
-  <si>
-    <t>S022</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S017</t>
-  </si>
-  <si>
-    <t>S020</t>
-  </si>
-  <si>
-    <t>S008</t>
   </si>
   <si>
     <t>Tiempo</t>
